--- a/supp_materials/supp_table7.xlsx
+++ b/supp_materials/supp_table7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef359c8f53fcc50a/University of Minnesota/PhD/hirsch_lab/projects/marker-effects_networks/supp_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{CE817D6D-A230-B64B-AC85-75462E210A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E85980-0FAB-5644-8054-8D7CD3D28EB5}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{CE817D6D-A230-B64B-AC85-75462E210A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D31481-1604-5C4A-9BE3-C0419C7FAE39}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="5580" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supp_table7" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Network</t>
   </si>
@@ -37,52 +37,28 @@
     <t>p-value</t>
   </si>
   <si>
-    <t>firebrick2</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>lavenderblush3</t>
-  </si>
-  <si>
     <t>PC3</t>
   </si>
   <si>
-    <t>brown3</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>royalblue3</t>
-  </si>
-  <si>
-    <t>skyblue4</t>
-  </si>
-  <si>
-    <t>lightslateblue</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>slateblue</t>
-  </si>
-  <si>
-    <t>moccasin</t>
-  </si>
-  <si>
-    <t>indianred1</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>lightpink</t>
+    <t>plum1</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>greenyellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>darkolivegreen</t>
   </si>
 </sst>
 </file>
@@ -575,15 +551,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -933,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,226 +932,233 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-0.89</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D6" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>-0.89</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.89</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-0.89</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-0.9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-0.9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-0.9</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.89</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.08</v>
-      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
